--- a/track.xlsx
+++ b/track.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyc97\.leetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE00972-A9B3-4F62-B498-2E62877BF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Solved Date</t>
+  </si>
+  <si>
+    <t>Shume</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Take away</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Binary search, double pointer</t>
+  </si>
+  <si>
+    <t>use binary to search in array</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +378,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44659</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyc97\.leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE00972-A9B3-4F62-B498-2E62877BF182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1426C9F6-15E8-4D05-9C3C-D3A48EC648DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>use binary to search in array</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>visited list</t>
   </si>
 </sst>
 </file>
@@ -379,23 +391,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+    <col min="3" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,22 +418,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -431,20 +446,49 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
         <v>44659</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44659</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyc97\.leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1426C9F6-15E8-4D05-9C3C-D3A48EC648DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8913F-89F5-4ABD-A3F4-A3236793C266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>visited list</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>Recursion</t>
   </si>
 </sst>
 </file>
@@ -391,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +500,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44659</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyc97\.leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8913F-89F5-4ABD-A3F4-A3236793C266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D84AF-996A-4828-BA82-7B2E2D33F5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Recursion</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>sort, priority queue</t>
+  </si>
+  <si>
+    <t>sort(key=lambda x: x[0])</t>
   </si>
 </sst>
 </file>
@@ -400,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +535,35 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44661</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/track.xlsx
+++ b/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyc97\.leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D84AF-996A-4828-BA82-7B2E2D33F5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201FCCC-312C-4157-835C-F3BCEFF7FF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="2460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>sort(key=lambda x: x[0])</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>conditions</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +570,32 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44662</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
